--- a/tests/advanced/randomized_tests/b08.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b08.stpprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,6 +32,9 @@
     <t>S*-MM0</t>
   </si>
   <si>
+    <t>S*-unmerged</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -438,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +481,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,18 +508,24 @@
         <v>114</v>
       </c>
       <c r="G2">
+        <v>114</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -518,7 +536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,36 +544,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -564,28 +582,28 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>0.001029205159284174</v>
+        <v>8.912896737456322E-05</v>
       </c>
       <c r="E2">
-        <v>0.2307344379369169</v>
+        <v>0.0222397712059319</v>
       </c>
       <c r="F2">
         <v>46</v>
       </c>
       <c r="G2">
-        <v>0.01514919672627002</v>
+        <v>0.001979269552975893</v>
       </c>
       <c r="H2">
-        <v>0.02064473752398044</v>
+        <v>0.003122320864349604</v>
       </c>
       <c r="I2">
-        <v>0.04372585786040872</v>
+        <v>0.005609294399619102</v>
       </c>
       <c r="J2">
-        <v>0.1339003618340939</v>
+        <v>0.009039589669555426</v>
       </c>
       <c r="K2">
-        <v>0.006726523628458381</v>
+        <v>0.0007170438766479492</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -594,31 +612,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>0.0667857943335548</v>
+        <v>0.001718624960631132</v>
       </c>
       <c r="E3">
-        <v>0.4319063350558281</v>
+        <v>0.02583552291616797</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>0.0169137300690636</v>
+        <v>0.001975357532501221</v>
       </c>
       <c r="H3">
-        <v>0.09846609749365598</v>
+        <v>0.004766576923429966</v>
       </c>
       <c r="I3">
-        <v>0.1232302064308897</v>
+        <v>0.005655502434819937</v>
       </c>
       <c r="J3">
-        <v>0.1722692591138184</v>
+        <v>0.01113275717943907</v>
       </c>
       <c r="K3">
-        <v>0.005207403562963009</v>
+        <v>0.0006633377633988857</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -630,28 +648,28 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>0.04797221336048096</v>
+        <v>0.00203008996322751</v>
       </c>
       <c r="E4">
-        <v>0.456400836003013</v>
+        <v>0.02835799194872379</v>
       </c>
       <c r="F4">
         <v>46</v>
       </c>
       <c r="G4">
-        <v>0.01477518887259066</v>
+        <v>0.002220173366367817</v>
       </c>
       <c r="H4">
-        <v>0.1023641980718821</v>
+        <v>0.005485605914145708</v>
       </c>
       <c r="I4">
-        <v>0.1504818721441552</v>
+        <v>0.006355251651257277</v>
       </c>
       <c r="J4">
-        <v>0.1749696558108553</v>
+        <v>0.01170287234708667</v>
       </c>
       <c r="K4">
-        <v>0.003543483093380928</v>
+        <v>0.0007458264008164406</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,192 +681,258 @@
         <v>46</v>
       </c>
       <c r="D5">
-        <v>0.001199960010126233</v>
+        <v>0.000132476445287466</v>
       </c>
       <c r="E5">
-        <v>0.2352889479370788</v>
+        <v>0.02243422856554389</v>
       </c>
       <c r="F5">
         <v>46</v>
       </c>
       <c r="G5">
-        <v>0.01404689694754779</v>
+        <v>0.001913452055305243</v>
       </c>
       <c r="H5">
-        <v>0.02018142282031476</v>
+        <v>0.003099545370787382</v>
       </c>
       <c r="I5">
-        <v>0.05390309833455831</v>
+        <v>0.005960895679891109</v>
       </c>
       <c r="J5">
-        <v>0.1338044966105372</v>
+        <v>0.008982968982309103</v>
       </c>
       <c r="K5">
-        <v>0.003467054106295109</v>
+        <v>0.0007380195893347263</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>0.002546215895563364</v>
+      </c>
+      <c r="E6">
+        <v>0.06322001619264483</v>
+      </c>
+      <c r="F6">
+        <v>85</v>
+      </c>
+      <c r="G6">
+        <v>0.003238909412175417</v>
+      </c>
+      <c r="H6">
+        <v>0.008396383840590715</v>
+      </c>
+      <c r="I6">
+        <v>0.03092650882899761</v>
+      </c>
+      <c r="J6">
+        <v>0.01608820864930749</v>
+      </c>
+      <c r="K6">
+        <v>0.001378839369863272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>1425</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.01139114506077021</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>46</v>
-      </c>
-      <c r="D7">
-        <v>0.001029205159284174</v>
-      </c>
-      <c r="E7">
-        <v>0.2307344379369169</v>
-      </c>
-      <c r="F7">
-        <v>46</v>
-      </c>
-      <c r="G7">
-        <v>0.01514919672627002</v>
-      </c>
-      <c r="H7">
-        <v>0.02064473752398044</v>
-      </c>
-      <c r="I7">
-        <v>0.04372585786040872</v>
-      </c>
-      <c r="J7">
-        <v>0.1339003618340939</v>
-      </c>
-      <c r="K7">
-        <v>0.006726523628458381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>0.0667857943335548</v>
+        <v>8.912896737456322E-05</v>
       </c>
       <c r="E8">
-        <v>0.4319063350558281</v>
+        <v>0.0222397712059319</v>
       </c>
       <c r="F8">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>0.0169137300690636</v>
+        <v>0.001979269552975893</v>
       </c>
       <c r="H8">
-        <v>0.09846609749365598</v>
+        <v>0.003122320864349604</v>
       </c>
       <c r="I8">
-        <v>0.1232302064308897</v>
+        <v>0.005609294399619102</v>
       </c>
       <c r="J8">
-        <v>0.1722692591138184</v>
+        <v>0.009039589669555426</v>
       </c>
       <c r="K8">
-        <v>0.005207403562963009</v>
+        <v>0.0007170438766479492</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>46</v>
       </c>
       <c r="D9">
-        <v>0.04797221336048096</v>
+        <v>0.001718624960631132</v>
       </c>
       <c r="E9">
-        <v>0.456400836003013</v>
+        <v>0.02583552291616797</v>
       </c>
       <c r="F9">
         <v>46</v>
       </c>
       <c r="G9">
-        <v>0.01477518887259066</v>
+        <v>0.001975357532501221</v>
       </c>
       <c r="H9">
-        <v>0.1023641980718821</v>
+        <v>0.004766576923429966</v>
       </c>
       <c r="I9">
-        <v>0.1504818721441552</v>
+        <v>0.005655502434819937</v>
       </c>
       <c r="J9">
-        <v>0.1749696558108553</v>
+        <v>0.01113275717943907</v>
       </c>
       <c r="K9">
-        <v>0.003543483093380928</v>
+        <v>0.0006633377633988857</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>46</v>
       </c>
       <c r="D10">
-        <v>0.001199960010126233</v>
+        <v>0.00203008996322751</v>
       </c>
       <c r="E10">
-        <v>0.2352889479370788</v>
+        <v>0.02835799194872379</v>
       </c>
       <c r="F10">
         <v>46</v>
       </c>
       <c r="G10">
-        <v>0.01404689694754779</v>
+        <v>0.002220173366367817</v>
       </c>
       <c r="H10">
-        <v>0.02018142282031476</v>
+        <v>0.005485605914145708</v>
       </c>
       <c r="I10">
-        <v>0.05390309833455831</v>
+        <v>0.006355251651257277</v>
       </c>
       <c r="J10">
-        <v>0.1338044966105372</v>
+        <v>0.01170287234708667</v>
       </c>
       <c r="K10">
-        <v>0.003467054106295109</v>
+        <v>0.0007458264008164406</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>0.000132476445287466</v>
+      </c>
+      <c r="E11">
+        <v>0.02243422856554389</v>
+      </c>
+      <c r="F11">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>0.001913452055305243</v>
+      </c>
+      <c r="H11">
+        <v>0.003099545370787382</v>
+      </c>
+      <c r="I11">
+        <v>0.005960895679891109</v>
+      </c>
+      <c r="J11">
+        <v>0.008982968982309103</v>
+      </c>
+      <c r="K11">
+        <v>0.0007380195893347263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>0.002546215895563364</v>
+      </c>
+      <c r="E12">
+        <v>0.06322001619264483</v>
+      </c>
+      <c r="F12">
+        <v>85</v>
+      </c>
+      <c r="G12">
+        <v>0.003238909412175417</v>
+      </c>
+      <c r="H12">
+        <v>0.008396383840590715</v>
+      </c>
+      <c r="I12">
+        <v>0.03092650882899761</v>
+      </c>
+      <c r="J12">
+        <v>0.01608820864930749</v>
+      </c>
+      <c r="K12">
+        <v>0.001378839369863272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>1425</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.01139114506077021</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b08.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b08.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>8.912896737456322E-05</v>
+        <v>0.0001051705330610275</v>
       </c>
       <c r="E2">
-        <v>0.0222397712059319</v>
+        <v>0.02404072415083647</v>
       </c>
       <c r="F2">
         <v>46</v>
       </c>
       <c r="G2">
-        <v>0.001979269552975893</v>
+        <v>0.001866200007498264</v>
       </c>
       <c r="H2">
-        <v>0.003122320864349604</v>
+        <v>0.003437699284404516</v>
       </c>
       <c r="I2">
-        <v>0.005609294399619102</v>
+        <v>0.006688360590487719</v>
       </c>
       <c r="J2">
-        <v>0.009039589669555426</v>
+        <v>0.009857061319053173</v>
       </c>
       <c r="K2">
-        <v>0.0007170438766479492</v>
+        <v>0.0006329780444502831</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>46</v>
       </c>
       <c r="D3">
-        <v>0.001718624960631132</v>
+        <v>0.001517576165497303</v>
       </c>
       <c r="E3">
-        <v>0.02583552291616797</v>
+        <v>0.02896568505093455</v>
       </c>
       <c r="F3">
         <v>46</v>
       </c>
       <c r="G3">
-        <v>0.001975357532501221</v>
+        <v>0.001863546669483185</v>
       </c>
       <c r="H3">
-        <v>0.004766576923429966</v>
+        <v>0.004860787652432919</v>
       </c>
       <c r="I3">
-        <v>0.005655502434819937</v>
+        <v>0.007207036018371582</v>
       </c>
       <c r="J3">
-        <v>0.01113275717943907</v>
+        <v>0.01275668945163488</v>
       </c>
       <c r="K3">
-        <v>0.0006633377633988857</v>
+        <v>0.0006483257748186588</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>0.00203008996322751</v>
+        <v>0.001585181802511215</v>
       </c>
       <c r="E4">
-        <v>0.02835799194872379</v>
+        <v>0.02904109004884958</v>
       </c>
       <c r="F4">
         <v>46</v>
       </c>
       <c r="G4">
-        <v>0.002220173366367817</v>
+        <v>0.001918567810207605</v>
       </c>
       <c r="H4">
-        <v>0.005485605914145708</v>
+        <v>0.005087052471935749</v>
       </c>
       <c r="I4">
-        <v>0.006355251651257277</v>
+        <v>0.007148382253944874</v>
       </c>
       <c r="J4">
-        <v>0.01170287234708667</v>
+        <v>0.01260941568762064</v>
       </c>
       <c r="K4">
-        <v>0.0007458264008164406</v>
+        <v>0.0006388784386217594</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>46</v>
       </c>
       <c r="D5">
-        <v>0.000132476445287466</v>
+        <v>0.0001466358080506325</v>
       </c>
       <c r="E5">
-        <v>0.02243422856554389</v>
+        <v>0.02527594566345215</v>
       </c>
       <c r="F5">
         <v>46</v>
       </c>
       <c r="G5">
-        <v>0.001913452055305243</v>
+        <v>0.00186906149610877</v>
       </c>
       <c r="H5">
-        <v>0.003099545370787382</v>
+        <v>0.003443620633333921</v>
       </c>
       <c r="I5">
-        <v>0.005960895679891109</v>
+        <v>0.007121519185602665</v>
       </c>
       <c r="J5">
-        <v>0.008982968982309103</v>
+        <v>0.010344541631639</v>
       </c>
       <c r="K5">
-        <v>0.0007380195893347263</v>
+        <v>0.0007301103323698044</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>85</v>
       </c>
       <c r="D6">
-        <v>0.002546215895563364</v>
+        <v>0.002945591229945421</v>
       </c>
       <c r="E6">
-        <v>0.06322001619264483</v>
+        <v>0.09641678910702467</v>
       </c>
       <c r="F6">
         <v>85</v>
       </c>
       <c r="G6">
-        <v>0.003238909412175417</v>
+        <v>0.003808163572102785</v>
       </c>
       <c r="H6">
-        <v>0.008396383840590715</v>
+        <v>0.01098398957401514</v>
       </c>
       <c r="I6">
-        <v>0.03092650882899761</v>
+        <v>0.06238697795197368</v>
       </c>
       <c r="J6">
-        <v>0.01608820864930749</v>
+        <v>0.01404245849698782</v>
       </c>
       <c r="K6">
-        <v>0.001378839369863272</v>
+        <v>0.00150584289804101</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>8.912896737456322E-05</v>
+        <v>0.0001051705330610275</v>
       </c>
       <c r="E8">
-        <v>0.0222397712059319</v>
+        <v>0.02404072415083647</v>
       </c>
       <c r="F8">
         <v>46</v>
       </c>
       <c r="G8">
-        <v>0.001979269552975893</v>
+        <v>0.001866200007498264</v>
       </c>
       <c r="H8">
-        <v>0.003122320864349604</v>
+        <v>0.003437699284404516</v>
       </c>
       <c r="I8">
-        <v>0.005609294399619102</v>
+        <v>0.006688360590487719</v>
       </c>
       <c r="J8">
-        <v>0.009039589669555426</v>
+        <v>0.009857061319053173</v>
       </c>
       <c r="K8">
-        <v>0.0007170438766479492</v>
+        <v>0.0006329780444502831</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>46</v>
       </c>
       <c r="D9">
-        <v>0.001718624960631132</v>
+        <v>0.001517576165497303</v>
       </c>
       <c r="E9">
-        <v>0.02583552291616797</v>
+        <v>0.02896568505093455</v>
       </c>
       <c r="F9">
         <v>46</v>
       </c>
       <c r="G9">
-        <v>0.001975357532501221</v>
+        <v>0.001863546669483185</v>
       </c>
       <c r="H9">
-        <v>0.004766576923429966</v>
+        <v>0.004860787652432919</v>
       </c>
       <c r="I9">
-        <v>0.005655502434819937</v>
+        <v>0.007207036018371582</v>
       </c>
       <c r="J9">
-        <v>0.01113275717943907</v>
+        <v>0.01275668945163488</v>
       </c>
       <c r="K9">
-        <v>0.0006633377633988857</v>
+        <v>0.0006483257748186588</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>46</v>
       </c>
       <c r="D10">
-        <v>0.00203008996322751</v>
+        <v>0.001585181802511215</v>
       </c>
       <c r="E10">
-        <v>0.02835799194872379</v>
+        <v>0.02904109004884958</v>
       </c>
       <c r="F10">
         <v>46</v>
       </c>
       <c r="G10">
-        <v>0.002220173366367817</v>
+        <v>0.001918567810207605</v>
       </c>
       <c r="H10">
-        <v>0.005485605914145708</v>
+        <v>0.005087052471935749</v>
       </c>
       <c r="I10">
-        <v>0.006355251651257277</v>
+        <v>0.007148382253944874</v>
       </c>
       <c r="J10">
-        <v>0.01170287234708667</v>
+        <v>0.01260941568762064</v>
       </c>
       <c r="K10">
-        <v>0.0007458264008164406</v>
+        <v>0.0006388784386217594</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>46</v>
       </c>
       <c r="D11">
-        <v>0.000132476445287466</v>
+        <v>0.0001466358080506325</v>
       </c>
       <c r="E11">
-        <v>0.02243422856554389</v>
+        <v>0.02527594566345215</v>
       </c>
       <c r="F11">
         <v>46</v>
       </c>
       <c r="G11">
-        <v>0.001913452055305243</v>
+        <v>0.00186906149610877</v>
       </c>
       <c r="H11">
-        <v>0.003099545370787382</v>
+        <v>0.003443620633333921</v>
       </c>
       <c r="I11">
-        <v>0.005960895679891109</v>
+        <v>0.007121519185602665</v>
       </c>
       <c r="J11">
-        <v>0.008982968982309103</v>
+        <v>0.010344541631639</v>
       </c>
       <c r="K11">
-        <v>0.0007380195893347263</v>
+        <v>0.0007301103323698044</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>85</v>
       </c>
       <c r="D12">
-        <v>0.002546215895563364</v>
+        <v>0.002945591229945421</v>
       </c>
       <c r="E12">
-        <v>0.06322001619264483</v>
+        <v>0.09641678910702467</v>
       </c>
       <c r="F12">
         <v>85</v>
       </c>
       <c r="G12">
-        <v>0.003238909412175417</v>
+        <v>0.003808163572102785</v>
       </c>
       <c r="H12">
-        <v>0.008396383840590715</v>
+        <v>0.01098398957401514</v>
       </c>
       <c r="I12">
-        <v>0.03092650882899761</v>
+        <v>0.06238697795197368</v>
       </c>
       <c r="J12">
-        <v>0.01608820864930749</v>
+        <v>0.01404245849698782</v>
       </c>
       <c r="K12">
-        <v>0.001378839369863272</v>
+        <v>0.00150584289804101</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b08.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b08.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>114</v>
       </c>
       <c r="D2">
-        <v>114</v>
-      </c>
-      <c r="E2">
-        <v>114</v>
-      </c>
-      <c r="F2">
-        <v>114</v>
-      </c>
-      <c r="G2">
-        <v>114</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>0.0001051705330610275</v>
+        <v>0.002888282760977745</v>
       </c>
       <c r="E2">
-        <v>0.02404072415083647</v>
+        <v>0.04405652405694127</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G2">
-        <v>0.001866200007498264</v>
+        <v>0.004256427753716707</v>
       </c>
       <c r="H2">
-        <v>0.003437699284404516</v>
+        <v>0.008786470629274845</v>
       </c>
       <c r="I2">
-        <v>0.006688360590487719</v>
+        <v>0.01400724845007062</v>
       </c>
       <c r="J2">
-        <v>0.009857061319053173</v>
+        <v>0.01093094376847148</v>
       </c>
       <c r="K2">
-        <v>0.0006329780444502831</v>
+        <v>0.002452417276799679</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>46</v>
-      </c>
-      <c r="D3">
-        <v>0.001517576165497303</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02896568505093455</v>
-      </c>
-      <c r="F3">
-        <v>46</v>
-      </c>
-      <c r="G3">
-        <v>0.001863546669483185</v>
-      </c>
-      <c r="H3">
-        <v>0.004860787652432919</v>
-      </c>
-      <c r="I3">
-        <v>0.007207036018371582</v>
-      </c>
-      <c r="J3">
-        <v>0.01275668945163488</v>
-      </c>
-      <c r="K3">
-        <v>0.0006483257748186588</v>
+        <v>0.01345602516084909</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>0.001585181802511215</v>
+        <v>0.002888282760977745</v>
       </c>
       <c r="E4">
-        <v>0.02904109004884958</v>
+        <v>0.04405652405694127</v>
       </c>
       <c r="F4">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G4">
-        <v>0.001918567810207605</v>
+        <v>0.004256427753716707</v>
       </c>
       <c r="H4">
-        <v>0.005087052471935749</v>
+        <v>0.008786470629274845</v>
       </c>
       <c r="I4">
-        <v>0.007148382253944874</v>
+        <v>0.01400724845007062</v>
       </c>
       <c r="J4">
-        <v>0.01260941568762064</v>
+        <v>0.01093094376847148</v>
       </c>
       <c r="K4">
-        <v>0.0006388784386217594</v>
+        <v>0.002452417276799679</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>46</v>
-      </c>
-      <c r="D5">
-        <v>0.0001466358080506325</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02527594566345215</v>
-      </c>
-      <c r="F5">
-        <v>46</v>
-      </c>
-      <c r="G5">
-        <v>0.00186906149610877</v>
-      </c>
-      <c r="H5">
-        <v>0.003443620633333921</v>
-      </c>
-      <c r="I5">
-        <v>0.007121519185602665</v>
-      </c>
-      <c r="J5">
-        <v>0.010344541631639</v>
-      </c>
-      <c r="K5">
-        <v>0.0007301103323698044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>85</v>
-      </c>
-      <c r="D6">
-        <v>0.002945591229945421</v>
-      </c>
-      <c r="E6">
-        <v>0.09641678910702467</v>
-      </c>
-      <c r="F6">
-        <v>85</v>
-      </c>
-      <c r="G6">
-        <v>0.003808163572102785</v>
-      </c>
-      <c r="H6">
-        <v>0.01098398957401514</v>
-      </c>
-      <c r="I6">
-        <v>0.06238697795197368</v>
-      </c>
-      <c r="J6">
-        <v>0.01404245849698782</v>
-      </c>
-      <c r="K6">
-        <v>0.00150584289804101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1425</v>
-      </c>
-      <c r="E7">
-        <v>0.01139114506077021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>46</v>
-      </c>
-      <c r="D8">
-        <v>0.0001051705330610275</v>
-      </c>
-      <c r="E8">
-        <v>0.02404072415083647</v>
-      </c>
-      <c r="F8">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>0.001866200007498264</v>
-      </c>
-      <c r="H8">
-        <v>0.003437699284404516</v>
-      </c>
-      <c r="I8">
-        <v>0.006688360590487719</v>
-      </c>
-      <c r="J8">
-        <v>0.009857061319053173</v>
-      </c>
-      <c r="K8">
-        <v>0.0006329780444502831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <v>0.001517576165497303</v>
-      </c>
-      <c r="E9">
-        <v>0.02896568505093455</v>
-      </c>
-      <c r="F9">
-        <v>46</v>
-      </c>
-      <c r="G9">
-        <v>0.001863546669483185</v>
-      </c>
-      <c r="H9">
-        <v>0.004860787652432919</v>
-      </c>
-      <c r="I9">
-        <v>0.007207036018371582</v>
-      </c>
-      <c r="J9">
-        <v>0.01275668945163488</v>
-      </c>
-      <c r="K9">
-        <v>0.0006483257748186588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <v>0.001585181802511215</v>
-      </c>
-      <c r="E10">
-        <v>0.02904109004884958</v>
-      </c>
-      <c r="F10">
-        <v>46</v>
-      </c>
-      <c r="G10">
-        <v>0.001918567810207605</v>
-      </c>
-      <c r="H10">
-        <v>0.005087052471935749</v>
-      </c>
-      <c r="I10">
-        <v>0.007148382253944874</v>
-      </c>
-      <c r="J10">
-        <v>0.01260941568762064</v>
-      </c>
-      <c r="K10">
-        <v>0.0006388784386217594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>46</v>
-      </c>
-      <c r="D11">
-        <v>0.0001466358080506325</v>
-      </c>
-      <c r="E11">
-        <v>0.02527594566345215</v>
-      </c>
-      <c r="F11">
-        <v>46</v>
-      </c>
-      <c r="G11">
-        <v>0.00186906149610877</v>
-      </c>
-      <c r="H11">
-        <v>0.003443620633333921</v>
-      </c>
-      <c r="I11">
-        <v>0.007121519185602665</v>
-      </c>
-      <c r="J11">
-        <v>0.010344541631639</v>
-      </c>
-      <c r="K11">
-        <v>0.0007301103323698044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>85</v>
-      </c>
-      <c r="D12">
-        <v>0.002945591229945421</v>
-      </c>
-      <c r="E12">
-        <v>0.09641678910702467</v>
-      </c>
-      <c r="F12">
-        <v>85</v>
-      </c>
-      <c r="G12">
-        <v>0.003808163572102785</v>
-      </c>
-      <c r="H12">
-        <v>0.01098398957401514</v>
-      </c>
-      <c r="I12">
-        <v>0.06238697795197368</v>
-      </c>
-      <c r="J12">
-        <v>0.01404245849698782</v>
-      </c>
-      <c r="K12">
-        <v>0.00150584289804101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>1425</v>
-      </c>
-      <c r="E13">
-        <v>0.01139114506077021</v>
+        <v>0.01345602516084909</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b08.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b08.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>114</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
+        <v>114</v>
+      </c>
+      <c r="E2">
+        <v>114</v>
+      </c>
+      <c r="F2">
+        <v>114</v>
+      </c>
+      <c r="G2">
+        <v>114</v>
+      </c>
+      <c r="H2">
+        <v>114</v>
+      </c>
+      <c r="I2">
+        <v>114</v>
+      </c>
+      <c r="J2">
+        <v>114</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>0.002888282760977745</v>
+        <v>0.0002423026598989964</v>
       </c>
       <c r="E2">
-        <v>0.04405652405694127</v>
+        <v>0.03125290013849735</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>0.004256427753716707</v>
+        <v>0.003223784267902374</v>
       </c>
       <c r="H2">
-        <v>0.008786470629274845</v>
+        <v>0.004421026445925236</v>
       </c>
       <c r="I2">
-        <v>0.01400724845007062</v>
+        <v>0.007775869220495224</v>
       </c>
       <c r="J2">
-        <v>0.01093094376847148</v>
+        <v>0.01115819392725825</v>
       </c>
       <c r="K2">
-        <v>0.002452417276799679</v>
+        <v>0.001966983079910278</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <v>0.004754973109811544</v>
       </c>
       <c r="E3">
-        <v>0.01345602516084909</v>
+        <v>0.06811987422406673</v>
+      </c>
+      <c r="F3">
+        <v>93</v>
+      </c>
+      <c r="G3">
+        <v>0.006364983040839434</v>
+      </c>
+      <c r="H3">
+        <v>0.01367628248408437</v>
+      </c>
+      <c r="I3">
+        <v>0.02203885093331337</v>
+      </c>
+      <c r="J3">
+        <v>0.01691683987155557</v>
+      </c>
+      <c r="K3">
+        <v>0.003634361084550619</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>0.002888282760977745</v>
+        <v>0.001874401234090328</v>
       </c>
       <c r="E4">
-        <v>0.04405652405694127</v>
+        <v>0.02815040806308389</v>
       </c>
       <c r="F4">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>0.004256427753716707</v>
+        <v>0.002498366869986057</v>
       </c>
       <c r="H4">
-        <v>0.008786470629274845</v>
+        <v>0.005647810641676188</v>
       </c>
       <c r="I4">
-        <v>0.01400724845007062</v>
+        <v>0.006711634807288647</v>
       </c>
       <c r="J4">
-        <v>0.01093094376847148</v>
+        <v>0.0102206221781671</v>
       </c>
       <c r="K4">
-        <v>0.002452417276799679</v>
+        <v>0.001318312715739012</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>0.0002082730643451214</v>
       </c>
       <c r="E5">
+        <v>0.03401517402380705</v>
+      </c>
+      <c r="F5">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>0.003727004397660494</v>
+      </c>
+      <c r="H5">
+        <v>0.005001163110136986</v>
+      </c>
+      <c r="I5">
+        <v>0.008821365889161825</v>
+      </c>
+      <c r="J5">
+        <v>0.01170432101935148</v>
+      </c>
+      <c r="K5">
+        <v>0.00196819007396698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>0.0006000315770506859</v>
+      </c>
+      <c r="E6">
+        <v>0.06836220994591713</v>
+      </c>
+      <c r="F6">
+        <v>85</v>
+      </c>
+      <c r="G6">
+        <v>0.00501906918361783</v>
+      </c>
+      <c r="H6">
+        <v>0.00778212258592248</v>
+      </c>
+      <c r="I6">
+        <v>0.04020516341552138</v>
+      </c>
+      <c r="J6">
+        <v>0.008529662154614925</v>
+      </c>
+      <c r="K6">
+        <v>0.002843351103365421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>344</v>
+      </c>
+      <c r="D7">
+        <v>0.01023883000016212</v>
+      </c>
+      <c r="E7">
+        <v>0.2832820541225374</v>
+      </c>
+      <c r="F7">
+        <v>344</v>
+      </c>
+      <c r="G7">
+        <v>0.01680604182183743</v>
+      </c>
+      <c r="H7">
+        <v>0.03528005490079522</v>
+      </c>
+      <c r="I7">
+        <v>0.1825114591047168</v>
+      </c>
+      <c r="J7">
+        <v>0.02354924799874425</v>
+      </c>
+      <c r="K7">
+        <v>0.01037342799827456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>0.005088758189231157</v>
+      </c>
+      <c r="E8">
+        <v>0.1049202159047127</v>
+      </c>
+      <c r="F8">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <v>0.00628581503406167</v>
+      </c>
+      <c r="H8">
+        <v>0.01543538132682443</v>
+      </c>
+      <c r="I8">
+        <v>0.05347042437642813</v>
+      </c>
+      <c r="J8">
+        <v>0.02044258685782552</v>
+      </c>
+      <c r="K8">
+        <v>0.003692984115332365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>0.0007298281416296959</v>
+      </c>
+      <c r="E9">
+        <v>0.08051257487386465</v>
+      </c>
+      <c r="F9">
+        <v>85</v>
+      </c>
+      <c r="G9">
+        <v>0.005974812433123589</v>
+      </c>
+      <c r="H9">
+        <v>0.009536600206047297</v>
+      </c>
+      <c r="I9">
+        <v>0.04716209042817354</v>
+      </c>
+      <c r="J9">
+        <v>0.009470169898122549</v>
+      </c>
+      <c r="K9">
+        <v>0.003439745400100946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.01345602516084909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>0.0002423026598989964</v>
+      </c>
+      <c r="E11">
+        <v>0.03125290013849735</v>
+      </c>
+      <c r="F11">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>0.003223784267902374</v>
+      </c>
+      <c r="H11">
+        <v>0.004421026445925236</v>
+      </c>
+      <c r="I11">
+        <v>0.007775869220495224</v>
+      </c>
+      <c r="J11">
+        <v>0.01115819392725825</v>
+      </c>
+      <c r="K11">
+        <v>0.001966983079910278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>93</v>
+      </c>
+      <c r="D12">
+        <v>0.004754973109811544</v>
+      </c>
+      <c r="E12">
+        <v>0.06811987422406673</v>
+      </c>
+      <c r="F12">
+        <v>93</v>
+      </c>
+      <c r="G12">
+        <v>0.006364983040839434</v>
+      </c>
+      <c r="H12">
+        <v>0.01367628248408437</v>
+      </c>
+      <c r="I12">
+        <v>0.02203885093331337</v>
+      </c>
+      <c r="J12">
+        <v>0.01691683987155557</v>
+      </c>
+      <c r="K12">
+        <v>0.003634361084550619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>0.001874401234090328</v>
+      </c>
+      <c r="E13">
+        <v>0.02815040806308389</v>
+      </c>
+      <c r="F13">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>0.002498366869986057</v>
+      </c>
+      <c r="H13">
+        <v>0.005647810641676188</v>
+      </c>
+      <c r="I13">
+        <v>0.006711634807288647</v>
+      </c>
+      <c r="J13">
+        <v>0.0102206221781671</v>
+      </c>
+      <c r="K13">
+        <v>0.001318312715739012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>0.0002082730643451214</v>
+      </c>
+      <c r="E14">
+        <v>0.03401517402380705</v>
+      </c>
+      <c r="F14">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>0.003727004397660494</v>
+      </c>
+      <c r="H14">
+        <v>0.005001163110136986</v>
+      </c>
+      <c r="I14">
+        <v>0.008821365889161825</v>
+      </c>
+      <c r="J14">
+        <v>0.01170432101935148</v>
+      </c>
+      <c r="K14">
+        <v>0.00196819007396698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>0.0006000315770506859</v>
+      </c>
+      <c r="E15">
+        <v>0.06836220994591713</v>
+      </c>
+      <c r="F15">
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <v>0.00501906918361783</v>
+      </c>
+      <c r="H15">
+        <v>0.00778212258592248</v>
+      </c>
+      <c r="I15">
+        <v>0.04020516341552138</v>
+      </c>
+      <c r="J15">
+        <v>0.008529662154614925</v>
+      </c>
+      <c r="K15">
+        <v>0.002843351103365421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>344</v>
+      </c>
+      <c r="D16">
+        <v>0.01023883000016212</v>
+      </c>
+      <c r="E16">
+        <v>0.2832820541225374</v>
+      </c>
+      <c r="F16">
+        <v>344</v>
+      </c>
+      <c r="G16">
+        <v>0.01680604182183743</v>
+      </c>
+      <c r="H16">
+        <v>0.03528005490079522</v>
+      </c>
+      <c r="I16">
+        <v>0.1825114591047168</v>
+      </c>
+      <c r="J16">
+        <v>0.02354924799874425</v>
+      </c>
+      <c r="K16">
+        <v>0.01037342799827456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>0.005088758189231157</v>
+      </c>
+      <c r="E17">
+        <v>0.1049202159047127</v>
+      </c>
+      <c r="F17">
+        <v>85</v>
+      </c>
+      <c r="G17">
+        <v>0.00628581503406167</v>
+      </c>
+      <c r="H17">
+        <v>0.01543538132682443</v>
+      </c>
+      <c r="I17">
+        <v>0.05347042437642813</v>
+      </c>
+      <c r="J17">
+        <v>0.02044258685782552</v>
+      </c>
+      <c r="K17">
+        <v>0.003692984115332365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>0.0007298281416296959</v>
+      </c>
+      <c r="E18">
+        <v>0.08051257487386465</v>
+      </c>
+      <c r="F18">
+        <v>85</v>
+      </c>
+      <c r="G18">
+        <v>0.005974812433123589</v>
+      </c>
+      <c r="H18">
+        <v>0.009536600206047297</v>
+      </c>
+      <c r="I18">
+        <v>0.04716209042817354</v>
+      </c>
+      <c r="J18">
+        <v>0.009470169898122549</v>
+      </c>
+      <c r="K18">
+        <v>0.003439745400100946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>0.01345602516084909</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
